--- a/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke A Tuấn.xlsx
+++ b/bang_ke/van_loc_phat/example/tool bang ke/tool bang ke A Tuấn.xlsx
@@ -1,26 +1,217 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Van Loc Phat\Bảng Kê Vận Chuyển\New Format 2025\T9\tool bang ke\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Tools\bang_ke\van_loc_phat\example\tool bang ke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE11175C-4517-4C97-A0C0-71E68F2A7A41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1201A31B-ACA6-4268-A256-AA469BAF6E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="63">
+  <si>
+    <t>Ngày Xuất</t>
+  </si>
+  <si>
+    <t>Điểm Giao Hàng</t>
+  </si>
+  <si>
+    <t>Trọng Lượng</t>
+  </si>
+  <si>
+    <t>Giá Vận Chuyển</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>29/11/2025</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>04/12/2025</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>06/12/2025</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>09/12/2025</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>11/12/2025</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
+  </si>
+  <si>
+    <t>13/12/2025</t>
+  </si>
+  <si>
+    <t>14/12/2025</t>
+  </si>
+  <si>
+    <t>15/12/2025</t>
+  </si>
+  <si>
+    <t>16/12/2025</t>
+  </si>
+  <si>
+    <t>17/12/2025</t>
+  </si>
+  <si>
+    <t>18/12/2025</t>
+  </si>
+  <si>
+    <t>19/12/2025</t>
+  </si>
+  <si>
+    <t>20/12/2025</t>
+  </si>
+  <si>
+    <t>22/12/2025</t>
+  </si>
+  <si>
+    <t>23/12/2025</t>
+  </si>
+  <si>
+    <t>24/12/2025</t>
+  </si>
+  <si>
+    <t>25/12/2025</t>
+  </si>
+  <si>
+    <t>MP3</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>DUC HOA</t>
+  </si>
+  <si>
+    <t>HOC MON</t>
+  </si>
+  <si>
+    <t>BINH TAN</t>
+  </si>
+  <si>
+    <t>BINH CHANH</t>
+  </si>
+  <si>
+    <t>BEN CAT</t>
+  </si>
+  <si>
+    <t>NHON TRACH</t>
+  </si>
+  <si>
+    <t>BINH AN, DN</t>
+  </si>
+  <si>
+    <t>LONG THANH</t>
+  </si>
+  <si>
+    <t>THUAN AN</t>
+  </si>
+  <si>
+    <t>DI AN</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>TAN UYEN</t>
+  </si>
+  <si>
+    <t>VSIP 2A</t>
+  </si>
+  <si>
+    <t>NHA BE</t>
+  </si>
+  <si>
+    <t>CU CHI</t>
+  </si>
+  <si>
+    <t>LONG BINH</t>
+  </si>
+  <si>
+    <t>BIEN HOA</t>
+  </si>
+  <si>
+    <t>BAU BANG</t>
+  </si>
+  <si>
+    <t>MP3 - MP1</t>
+  </si>
+  <si>
+    <t>DUC HOA - HOC MON - BINH TAN</t>
+  </si>
+  <si>
+    <t>DUC HOA - BINH CHANH</t>
+  </si>
+  <si>
+    <t>NHON TRACH - BINH AN, DN - LONG THANH</t>
+  </si>
+  <si>
+    <t>THUAN AN - DI AN</t>
+  </si>
+  <si>
+    <t>DI AN - Q9</t>
+  </si>
+  <si>
+    <t>DI AN - TAN UYEN</t>
+  </si>
+  <si>
+    <t>DUC HOA - CU CHI</t>
+  </si>
+  <si>
+    <t>HOC MON - BINH CHANH - BINH TAN</t>
+  </si>
+  <si>
+    <t>LONG BINH - BIEN HOA</t>
+  </si>
+  <si>
+    <t>Q12 - CU CHI</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -81,9 +272,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -121,9 +312,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,26 +347,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,26 +382,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -401,361 +558,1245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7020</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
+        <v>217</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1776</v>
+      </c>
+      <c r="D4" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2025000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>760</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1267</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4320</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1020</v>
+      </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1">
+        <v>86</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5860</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1">
+        <v>920</v>
+      </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1">
+        <v>278</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1">
+        <v>284</v>
+      </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5200</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1315</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1028</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="1">
+        <v>592</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1">
+        <v>7340</v>
+      </c>
+      <c r="D20" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1">
+        <v>997</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2106400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5391</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1738</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2017</v>
+      </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6300</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6530</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1925000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5200</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2441</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5632</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1161</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2406</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1336</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2297</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1000</v>
+      </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3150</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3000</v>
+      </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2516</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2985</v>
+      </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1">
+        <v>324</v>
+      </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4801</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1200</v>
+      </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1">
+        <v>973</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="1">
+        <v>883</v>
+      </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47" s="1">
+        <v>3000</v>
+      </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1">
+        <v>792</v>
+      </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="1">
+        <v>835</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="1">
+        <v>430</v>
+      </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2040</v>
+      </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3986</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4300</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1570000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5620</v>
+      </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2312</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D57" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7237</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1776</v>
+      </c>
+      <c r="D3" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2025000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2027</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5426</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6780</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="1">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5762</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2343</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1">
+        <v>592</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7340</v>
+      </c>
+      <c r="D12" s="1">
+        <v>950000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6388</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2106400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3755</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1550000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <v>6300</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1">
+        <v>6000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6530</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1925000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5200</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1">
+        <v>4500</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2441</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5632</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1161</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2406</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1336</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3297</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6150</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1950000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>5825</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2050000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1750000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="1">
+        <v>973</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>5695</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3305</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3986</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1050000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4300</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1570000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6620</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2312</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1000000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
